--- a/barangaroo/static/admin/file/MeterTree.xlsx
+++ b/barangaroo/static/admin/file/MeterTree.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meter" sheetId="1" r:id="rId1"/>
+    <sheet name="Water" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="503">
   <si>
     <t>Parent</t>
   </si>
@@ -88,7 +89,7 @@
     <t>EMS-B02-ELE-008</t>
   </si>
   <si>
-    <t>MSSB-LG-1E</t>
+    <t>MSSB-LGF-1E</t>
   </si>
   <si>
     <t>EMS-B02-ELE-016</t>
@@ -142,16 +143,16 @@
     <t>EMS-B02-ELE-018</t>
   </si>
   <si>
-    <t>MSSB-LG-1</t>
-  </si>
-  <si>
-    <t>EMS-LG-ELE-001</t>
+    <t>MSSB-LGF-1</t>
+  </si>
+  <si>
+    <t>EMS-LGF-ELE-001</t>
   </si>
   <si>
     <t>DB-HB-LG LIGHT</t>
   </si>
   <si>
-    <t>EMS-LG-ELE-002</t>
+    <t>EMS-LGF-ELE-002</t>
   </si>
   <si>
     <t>DB-HB-LG POWER</t>
@@ -259,13 +260,13 @@
     <t>DB-FCR (FIELD)</t>
   </si>
   <si>
-    <t>EMS-LG-ELE-003</t>
+    <t>EMS-LGF-ELE-003</t>
   </si>
   <si>
     <t>DB-EOT LIGHT</t>
   </si>
   <si>
-    <t>EMS-LG-ELE-004</t>
+    <t>EMS-LGF-ELE-004</t>
   </si>
   <si>
     <t>DB-EOT POWER</t>
@@ -511,22 +512,22 @@
     <t>DB-HB-R-HYD</t>
   </si>
   <si>
-    <t>EMS-LG-MEC-001</t>
-  </si>
-  <si>
-    <t>AMEM-MSSB-LG-1-1</t>
-  </si>
-  <si>
-    <t>EMS-LG-MEC-002</t>
-  </si>
-  <si>
-    <t>AMEM-MSSB-LG-1-2</t>
-  </si>
-  <si>
-    <t>EMS-LG-MEC-003</t>
-  </si>
-  <si>
-    <t>AMEM-MSSB-LG-1E-1</t>
+    <t>EMS-LGF-MEC-001</t>
+  </si>
+  <si>
+    <t>AMEM-MSSB-LGF-1-1</t>
+  </si>
+  <si>
+    <t>EMS-LGF-MEC-002</t>
+  </si>
+  <si>
+    <t>AMEM-MSSB-LGF-1-2</t>
+  </si>
+  <si>
+    <t>EMS-LGF-MEC-003</t>
+  </si>
+  <si>
+    <t>AMEM-MSSB-LGF-1E-1</t>
   </si>
   <si>
     <t>EMS-L11-MEC-002</t>
@@ -1051,7 +1052,7 @@
     <t>L11-NPCW-EMS-01</t>
   </si>
   <si>
-    <t>EMS-LG-HYW-005</t>
+    <t>EMS-LGF-HYW-005</t>
   </si>
   <si>
     <t>LG-NPCW-EMS-01</t>
@@ -1093,7 +1094,7 @@
     <t>L36-NPCW-EMS-01</t>
   </si>
   <si>
-    <t>EMS-LG-COR-NP-001</t>
+    <t>EMS-LGF-COR-NP-001</t>
   </si>
   <si>
     <t>LG AMENITIES NPCW</t>
@@ -1303,19 +1304,19 @@
     <t>L33 AMENITIES NPCW</t>
   </si>
   <si>
-    <t>EMS-LG-HYW-002</t>
+    <t>EMS-LGF-HYW-002</t>
   </si>
   <si>
     <t>LG-HW-EMS-01</t>
   </si>
   <si>
-    <t>EMS-LG-HYW-004</t>
+    <t>EMS-LGF-HYW-004</t>
   </si>
   <si>
     <t>LG-HW-EMS-03</t>
   </si>
   <si>
-    <t>EMS-LG-HYW-003</t>
+    <t>EMS-LGF-HYW-003</t>
   </si>
   <si>
     <t>LG-HW-EMS-02</t>
@@ -1530,10 +1531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1553,13 +1554,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1567,14 +1561,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,17 +1585,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1611,9 +1621,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1628,30 +1645,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1659,22 +1653,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1688,9 +1683,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,7 +1706,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,61 +1868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,109 +1886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,60 +1897,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1977,11 +1924,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1996,18 +1949,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2019,138 +2020,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2475,10 +2473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F243"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2493,22 +2491,22 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4309,3046 +4307,6 @@
         <v>190</v>
       </c>
       <c r="F91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:6">
-      <c r="A92" t="s">
-        <v>191</v>
-      </c>
-      <c r="B92" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>193</v>
-      </c>
-      <c r="E92" t="s">
-        <v>194</v>
-      </c>
-      <c r="F92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:6">
-      <c r="A93" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>195</v>
-      </c>
-      <c r="E93" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:6">
-      <c r="A94" t="s">
-        <v>193</v>
-      </c>
-      <c r="B94" t="s">
-        <v>194</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>197</v>
-      </c>
-      <c r="E94" t="s">
-        <v>198</v>
-      </c>
-      <c r="F94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:6">
-      <c r="A95" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>199</v>
-      </c>
-      <c r="E95" t="s">
-        <v>200</v>
-      </c>
-      <c r="F95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:6">
-      <c r="A96" t="s">
-        <v>193</v>
-      </c>
-      <c r="B96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>201</v>
-      </c>
-      <c r="E96" t="s">
-        <v>202</v>
-      </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" spans="1:6">
-      <c r="A97" t="s">
-        <v>193</v>
-      </c>
-      <c r="B97" t="s">
-        <v>194</v>
-      </c>
-      <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>203</v>
-      </c>
-      <c r="E97" t="s">
-        <v>204</v>
-      </c>
-      <c r="F97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" spans="1:6">
-      <c r="A98" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>205</v>
-      </c>
-      <c r="E98" t="s">
-        <v>206</v>
-      </c>
-      <c r="F98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:6">
-      <c r="A99" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" t="s">
-        <v>194</v>
-      </c>
-      <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" t="s">
-        <v>207</v>
-      </c>
-      <c r="E99" t="s">
-        <v>208</v>
-      </c>
-      <c r="F99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:6">
-      <c r="A100" t="s">
-        <v>193</v>
-      </c>
-      <c r="B100" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s">
-        <v>209</v>
-      </c>
-      <c r="E100" t="s">
-        <v>210</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" spans="1:6">
-      <c r="A101" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" t="s">
-        <v>211</v>
-      </c>
-      <c r="E101" t="s">
-        <v>212</v>
-      </c>
-      <c r="F101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" spans="1:6">
-      <c r="A102" t="s">
-        <v>193</v>
-      </c>
-      <c r="B102" t="s">
-        <v>194</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" t="s">
-        <v>213</v>
-      </c>
-      <c r="E102" t="s">
-        <v>214</v>
-      </c>
-      <c r="F102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" spans="1:6">
-      <c r="A103" t="s">
-        <v>193</v>
-      </c>
-      <c r="B103" t="s">
-        <v>194</v>
-      </c>
-      <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" t="s">
-        <v>215</v>
-      </c>
-      <c r="E103" t="s">
-        <v>216</v>
-      </c>
-      <c r="F103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:6">
-      <c r="A104" t="s">
-        <v>193</v>
-      </c>
-      <c r="B104" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" t="s">
-        <v>217</v>
-      </c>
-      <c r="E104" t="s">
-        <v>218</v>
-      </c>
-      <c r="F104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:6">
-      <c r="A105" t="s">
-        <v>193</v>
-      </c>
-      <c r="B105" t="s">
-        <v>194</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" t="s">
-        <v>219</v>
-      </c>
-      <c r="E105" t="s">
-        <v>220</v>
-      </c>
-      <c r="F105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="1:6">
-      <c r="A106" t="s">
-        <v>193</v>
-      </c>
-      <c r="B106" t="s">
-        <v>194</v>
-      </c>
-      <c r="C106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" t="s">
-        <v>221</v>
-      </c>
-      <c r="E106" t="s">
-        <v>222</v>
-      </c>
-      <c r="F106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:6">
-      <c r="A107" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" t="s">
-        <v>194</v>
-      </c>
-      <c r="C107" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" t="s">
-        <v>223</v>
-      </c>
-      <c r="E107" t="s">
-        <v>224</v>
-      </c>
-      <c r="F107" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" spans="1:6">
-      <c r="A108" t="s">
-        <v>193</v>
-      </c>
-      <c r="B108" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" t="s">
-        <v>225</v>
-      </c>
-      <c r="E108" t="s">
-        <v>226</v>
-      </c>
-      <c r="F108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" spans="1:6">
-      <c r="A109" t="s">
-        <v>193</v>
-      </c>
-      <c r="B109" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>227</v>
-      </c>
-      <c r="E109" t="s">
-        <v>228</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" spans="1:6">
-      <c r="A110" t="s">
-        <v>193</v>
-      </c>
-      <c r="B110" t="s">
-        <v>194</v>
-      </c>
-      <c r="C110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" t="s">
-        <v>229</v>
-      </c>
-      <c r="E110" t="s">
-        <v>230</v>
-      </c>
-      <c r="F110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" customFormat="1" spans="1:6">
-      <c r="A111" t="s">
-        <v>193</v>
-      </c>
-      <c r="B111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" t="s">
-        <v>231</v>
-      </c>
-      <c r="E111" t="s">
-        <v>232</v>
-      </c>
-      <c r="F111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" spans="1:6">
-      <c r="A112" t="s">
-        <v>193</v>
-      </c>
-      <c r="B112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C112" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" t="s">
-        <v>233</v>
-      </c>
-      <c r="E112" t="s">
-        <v>234</v>
-      </c>
-      <c r="F112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" customFormat="1" spans="1:6">
-      <c r="A113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" t="s">
-        <v>194</v>
-      </c>
-      <c r="C113" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" t="s">
-        <v>235</v>
-      </c>
-      <c r="E113" t="s">
-        <v>236</v>
-      </c>
-      <c r="F113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="1:6">
-      <c r="A114" t="s">
-        <v>193</v>
-      </c>
-      <c r="B114" t="s">
-        <v>194</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" t="s">
-        <v>238</v>
-      </c>
-      <c r="F114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:6">
-      <c r="A115" t="s">
-        <v>193</v>
-      </c>
-      <c r="B115" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" t="s">
-        <v>239</v>
-      </c>
-      <c r="E115" t="s">
-        <v>240</v>
-      </c>
-      <c r="F115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" customFormat="1" spans="1:6">
-      <c r="A116" t="s">
-        <v>193</v>
-      </c>
-      <c r="B116" t="s">
-        <v>194</v>
-      </c>
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s">
-        <v>241</v>
-      </c>
-      <c r="E116" t="s">
-        <v>242</v>
-      </c>
-      <c r="F116" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" spans="1:6">
-      <c r="A117" t="s">
-        <v>193</v>
-      </c>
-      <c r="B117" t="s">
-        <v>194</v>
-      </c>
-      <c r="C117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" t="s">
-        <v>243</v>
-      </c>
-      <c r="E117" t="s">
-        <v>244</v>
-      </c>
-      <c r="F117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:6">
-      <c r="A118" t="s">
-        <v>219</v>
-      </c>
-      <c r="B118" t="s">
-        <v>220</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" t="s">
-        <v>245</v>
-      </c>
-      <c r="E118" t="s">
-        <v>246</v>
-      </c>
-      <c r="F118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" spans="1:6">
-      <c r="A119" t="s">
-        <v>219</v>
-      </c>
-      <c r="B119" t="s">
-        <v>220</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" t="s">
-        <v>247</v>
-      </c>
-      <c r="E119" t="s">
-        <v>248</v>
-      </c>
-      <c r="F119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" customFormat="1" spans="1:6">
-      <c r="A120" t="s">
-        <v>219</v>
-      </c>
-      <c r="B120" t="s">
-        <v>220</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" t="s">
-        <v>249</v>
-      </c>
-      <c r="E120" t="s">
-        <v>250</v>
-      </c>
-      <c r="F120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" customFormat="1" spans="1:6">
-      <c r="A121" t="s">
-        <v>219</v>
-      </c>
-      <c r="B121" t="s">
-        <v>220</v>
-      </c>
-      <c r="C121" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" t="s">
-        <v>251</v>
-      </c>
-      <c r="E121" t="s">
-        <v>252</v>
-      </c>
-      <c r="F121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" spans="1:6">
-      <c r="A122" t="s">
-        <v>219</v>
-      </c>
-      <c r="B122" t="s">
-        <v>220</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s">
-        <v>253</v>
-      </c>
-      <c r="E122" t="s">
-        <v>254</v>
-      </c>
-      <c r="F122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" customFormat="1" spans="1:6">
-      <c r="A123" t="s">
-        <v>219</v>
-      </c>
-      <c r="B123" t="s">
-        <v>220</v>
-      </c>
-      <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" t="s">
-        <v>255</v>
-      </c>
-      <c r="E123" t="s">
-        <v>256</v>
-      </c>
-      <c r="F123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" customFormat="1" spans="1:6">
-      <c r="A124" t="s">
-        <v>219</v>
-      </c>
-      <c r="B124" t="s">
-        <v>220</v>
-      </c>
-      <c r="C124" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" t="s">
-        <v>257</v>
-      </c>
-      <c r="E124" t="s">
-        <v>258</v>
-      </c>
-      <c r="F124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" customFormat="1" spans="1:6">
-      <c r="A125" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" t="s">
-        <v>220</v>
-      </c>
-      <c r="C125" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" t="s">
-        <v>259</v>
-      </c>
-      <c r="E125" t="s">
-        <v>260</v>
-      </c>
-      <c r="F125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" customFormat="1" spans="1:6">
-      <c r="A126" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" t="s">
-        <v>220</v>
-      </c>
-      <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" t="s">
-        <v>261</v>
-      </c>
-      <c r="E126" t="s">
-        <v>262</v>
-      </c>
-      <c r="F126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" customFormat="1" spans="1:6">
-      <c r="A127" t="s">
-        <v>219</v>
-      </c>
-      <c r="B127" t="s">
-        <v>220</v>
-      </c>
-      <c r="C127" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" t="s">
-        <v>263</v>
-      </c>
-      <c r="E127" t="s">
-        <v>264</v>
-      </c>
-      <c r="F127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" customFormat="1" spans="1:6">
-      <c r="A128" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" t="s">
-        <v>220</v>
-      </c>
-      <c r="C128" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" t="s">
-        <v>265</v>
-      </c>
-      <c r="E128" t="s">
-        <v>266</v>
-      </c>
-      <c r="F128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" customFormat="1" spans="1:6">
-      <c r="A129" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" t="s">
-        <v>220</v>
-      </c>
-      <c r="C129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" t="s">
-        <v>267</v>
-      </c>
-      <c r="E129" t="s">
-        <v>268</v>
-      </c>
-      <c r="F129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" customFormat="1" spans="1:6">
-      <c r="A130" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" t="s">
-        <v>220</v>
-      </c>
-      <c r="C130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>269</v>
-      </c>
-      <c r="E130" t="s">
-        <v>270</v>
-      </c>
-      <c r="F130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" customFormat="1" spans="1:6">
-      <c r="A131" t="s">
-        <v>219</v>
-      </c>
-      <c r="B131" t="s">
-        <v>220</v>
-      </c>
-      <c r="C131" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>271</v>
-      </c>
-      <c r="E131" t="s">
-        <v>272</v>
-      </c>
-      <c r="F131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" customFormat="1" spans="1:6">
-      <c r="A132" t="s">
-        <v>219</v>
-      </c>
-      <c r="B132" t="s">
-        <v>220</v>
-      </c>
-      <c r="C132" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" t="s">
-        <v>273</v>
-      </c>
-      <c r="E132" t="s">
-        <v>274</v>
-      </c>
-      <c r="F132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" customFormat="1" spans="1:6">
-      <c r="A133" t="s">
-        <v>219</v>
-      </c>
-      <c r="B133" t="s">
-        <v>220</v>
-      </c>
-      <c r="C133" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" t="s">
-        <v>275</v>
-      </c>
-      <c r="E133" t="s">
-        <v>276</v>
-      </c>
-      <c r="F133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" customFormat="1" spans="1:6">
-      <c r="A134" t="s">
-        <v>219</v>
-      </c>
-      <c r="B134" t="s">
-        <v>220</v>
-      </c>
-      <c r="C134" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s">
-        <v>277</v>
-      </c>
-      <c r="E134" t="s">
-        <v>278</v>
-      </c>
-      <c r="F134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" customFormat="1" spans="1:6">
-      <c r="A135" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" t="s">
-        <v>220</v>
-      </c>
-      <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" t="s">
-        <v>279</v>
-      </c>
-      <c r="E135" t="s">
-        <v>280</v>
-      </c>
-      <c r="F135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" customFormat="1" spans="1:6">
-      <c r="A136" t="s">
-        <v>219</v>
-      </c>
-      <c r="B136" t="s">
-        <v>220</v>
-      </c>
-      <c r="C136" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" t="s">
-        <v>281</v>
-      </c>
-      <c r="E136" t="s">
-        <v>282</v>
-      </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" customFormat="1" spans="1:6">
-      <c r="A137" t="s">
-        <v>283</v>
-      </c>
-      <c r="B137" t="s">
-        <v>284</v>
-      </c>
-      <c r="C137" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" t="s">
-        <v>285</v>
-      </c>
-      <c r="E137" t="s">
-        <v>286</v>
-      </c>
-      <c r="F137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" customFormat="1" spans="1:6">
-      <c r="A138" t="s">
-        <v>283</v>
-      </c>
-      <c r="B138" t="s">
-        <v>284</v>
-      </c>
-      <c r="C138" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" t="s">
-        <v>287</v>
-      </c>
-      <c r="E138" t="s">
-        <v>288</v>
-      </c>
-      <c r="F138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" customFormat="1" spans="1:6">
-      <c r="A139" t="s">
-        <v>283</v>
-      </c>
-      <c r="B139" t="s">
-        <v>284</v>
-      </c>
-      <c r="C139" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" t="s">
-        <v>289</v>
-      </c>
-      <c r="E139" t="s">
-        <v>290</v>
-      </c>
-      <c r="F139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" customFormat="1" spans="1:6">
-      <c r="A140" t="s">
-        <v>283</v>
-      </c>
-      <c r="B140" t="s">
-        <v>284</v>
-      </c>
-      <c r="C140" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" t="s">
-        <v>291</v>
-      </c>
-      <c r="E140" t="s">
-        <v>292</v>
-      </c>
-      <c r="F140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" customFormat="1" spans="1:6">
-      <c r="A141" t="s">
-        <v>283</v>
-      </c>
-      <c r="B141" t="s">
-        <v>284</v>
-      </c>
-      <c r="C141" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" t="s">
-        <v>293</v>
-      </c>
-      <c r="E141" t="s">
-        <v>294</v>
-      </c>
-      <c r="F141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" customFormat="1" spans="1:6">
-      <c r="A142" t="s">
-        <v>283</v>
-      </c>
-      <c r="B142" t="s">
-        <v>284</v>
-      </c>
-      <c r="C142" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" t="s">
-        <v>295</v>
-      </c>
-      <c r="E142" t="s">
-        <v>296</v>
-      </c>
-      <c r="F142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" customFormat="1" spans="1:6">
-      <c r="A143" t="s">
-        <v>283</v>
-      </c>
-      <c r="B143" t="s">
-        <v>284</v>
-      </c>
-      <c r="C143" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" t="s">
-        <v>297</v>
-      </c>
-      <c r="E143" t="s">
-        <v>298</v>
-      </c>
-      <c r="F143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" customFormat="1" spans="1:6">
-      <c r="A144" t="s">
-        <v>283</v>
-      </c>
-      <c r="B144" t="s">
-        <v>284</v>
-      </c>
-      <c r="C144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" t="s">
-        <v>299</v>
-      </c>
-      <c r="E144" t="s">
-        <v>300</v>
-      </c>
-      <c r="F144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" customFormat="1" spans="1:6">
-      <c r="A145" t="s">
-        <v>283</v>
-      </c>
-      <c r="B145" t="s">
-        <v>284</v>
-      </c>
-      <c r="C145" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" t="s">
-        <v>301</v>
-      </c>
-      <c r="E145" t="s">
-        <v>302</v>
-      </c>
-      <c r="F145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" customFormat="1" spans="1:6">
-      <c r="A146" t="s">
-        <v>283</v>
-      </c>
-      <c r="B146" t="s">
-        <v>284</v>
-      </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" t="s">
-        <v>303</v>
-      </c>
-      <c r="E146" t="s">
-        <v>304</v>
-      </c>
-      <c r="F146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" customFormat="1" spans="1:6">
-      <c r="A147" t="s">
-        <v>283</v>
-      </c>
-      <c r="B147" t="s">
-        <v>284</v>
-      </c>
-      <c r="C147" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" t="s">
-        <v>305</v>
-      </c>
-      <c r="E147" t="s">
-        <v>306</v>
-      </c>
-      <c r="F147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" customFormat="1" spans="1:6">
-      <c r="A148" t="s">
-        <v>283</v>
-      </c>
-      <c r="B148" t="s">
-        <v>284</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" t="s">
-        <v>307</v>
-      </c>
-      <c r="E148" t="s">
-        <v>308</v>
-      </c>
-      <c r="F148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" customFormat="1" spans="1:6">
-      <c r="A149" t="s">
-        <v>283</v>
-      </c>
-      <c r="B149" t="s">
-        <v>284</v>
-      </c>
-      <c r="C149" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" t="s">
-        <v>309</v>
-      </c>
-      <c r="E149" t="s">
-        <v>310</v>
-      </c>
-      <c r="F149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" customFormat="1" spans="1:6">
-      <c r="A150" t="s">
-        <v>283</v>
-      </c>
-      <c r="B150" t="s">
-        <v>284</v>
-      </c>
-      <c r="C150" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" t="s">
-        <v>311</v>
-      </c>
-      <c r="E150" t="s">
-        <v>312</v>
-      </c>
-      <c r="F150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" customFormat="1" spans="1:6">
-      <c r="A151" t="s">
-        <v>283</v>
-      </c>
-      <c r="B151" t="s">
-        <v>284</v>
-      </c>
-      <c r="C151" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" t="s">
-        <v>313</v>
-      </c>
-      <c r="E151" t="s">
-        <v>314</v>
-      </c>
-      <c r="F151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" customFormat="1" spans="1:6">
-      <c r="A152" t="s">
-        <v>283</v>
-      </c>
-      <c r="B152" t="s">
-        <v>284</v>
-      </c>
-      <c r="C152" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" t="s">
-        <v>315</v>
-      </c>
-      <c r="E152" t="s">
-        <v>316</v>
-      </c>
-      <c r="F152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" customFormat="1" spans="1:6">
-      <c r="A153" t="s">
-        <v>283</v>
-      </c>
-      <c r="B153" t="s">
-        <v>284</v>
-      </c>
-      <c r="C153" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" t="s">
-        <v>317</v>
-      </c>
-      <c r="E153" t="s">
-        <v>318</v>
-      </c>
-      <c r="F153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" customFormat="1" spans="1:6">
-      <c r="A154" t="s">
-        <v>283</v>
-      </c>
-      <c r="B154" t="s">
-        <v>284</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" t="s">
-        <v>319</v>
-      </c>
-      <c r="E154" t="s">
-        <v>320</v>
-      </c>
-      <c r="F154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" customFormat="1" spans="1:6">
-      <c r="A155" t="s">
-        <v>283</v>
-      </c>
-      <c r="B155" t="s">
-        <v>284</v>
-      </c>
-      <c r="C155" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" t="s">
-        <v>321</v>
-      </c>
-      <c r="E155" t="s">
-        <v>322</v>
-      </c>
-      <c r="F155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" customFormat="1" spans="1:6">
-      <c r="A156" t="s">
-        <v>283</v>
-      </c>
-      <c r="B156" t="s">
-        <v>284</v>
-      </c>
-      <c r="C156" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" t="s">
-        <v>323</v>
-      </c>
-      <c r="E156" t="s">
-        <v>324</v>
-      </c>
-      <c r="F156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" customFormat="1" spans="1:6">
-      <c r="A157" t="s">
-        <v>283</v>
-      </c>
-      <c r="B157" t="s">
-        <v>284</v>
-      </c>
-      <c r="C157" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" t="s">
-        <v>325</v>
-      </c>
-      <c r="E157" t="s">
-        <v>326</v>
-      </c>
-      <c r="F157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" customFormat="1" spans="1:6">
-      <c r="A158" t="s">
-        <v>283</v>
-      </c>
-      <c r="B158" t="s">
-        <v>284</v>
-      </c>
-      <c r="C158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" t="s">
-        <v>327</v>
-      </c>
-      <c r="E158" t="s">
-        <v>328</v>
-      </c>
-      <c r="F158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" customFormat="1" spans="1:6">
-      <c r="A159" t="s">
-        <v>283</v>
-      </c>
-      <c r="B159" t="s">
-        <v>284</v>
-      </c>
-      <c r="C159" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" t="s">
-        <v>329</v>
-      </c>
-      <c r="E159" t="s">
-        <v>330</v>
-      </c>
-      <c r="F159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" customFormat="1" spans="1:6">
-      <c r="A160" t="s">
-        <v>283</v>
-      </c>
-      <c r="B160" t="s">
-        <v>284</v>
-      </c>
-      <c r="C160" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" t="s">
-        <v>331</v>
-      </c>
-      <c r="E160" t="s">
-        <v>332</v>
-      </c>
-      <c r="F160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" customFormat="1" spans="1:6">
-      <c r="A161" t="s">
-        <v>283</v>
-      </c>
-      <c r="B161" t="s">
-        <v>284</v>
-      </c>
-      <c r="C161" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" t="s">
-        <v>333</v>
-      </c>
-      <c r="E161" t="s">
-        <v>334</v>
-      </c>
-      <c r="F161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" customFormat="1" spans="1:6">
-      <c r="A162" t="s">
-        <v>283</v>
-      </c>
-      <c r="B162" t="s">
-        <v>284</v>
-      </c>
-      <c r="C162" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" t="s">
-        <v>335</v>
-      </c>
-      <c r="E162" t="s">
-        <v>336</v>
-      </c>
-      <c r="F162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" customFormat="1" spans="1:6">
-      <c r="A163" t="s">
-        <v>283</v>
-      </c>
-      <c r="B163" t="s">
-        <v>284</v>
-      </c>
-      <c r="C163" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" t="s">
-        <v>337</v>
-      </c>
-      <c r="E163" t="s">
-        <v>338</v>
-      </c>
-      <c r="F163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" customFormat="1" spans="1:6">
-      <c r="A164" t="s">
-        <v>283</v>
-      </c>
-      <c r="B164" t="s">
-        <v>284</v>
-      </c>
-      <c r="C164" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" t="s">
-        <v>339</v>
-      </c>
-      <c r="E164" t="s">
-        <v>340</v>
-      </c>
-      <c r="F164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" customFormat="1" spans="1:6">
-      <c r="A165" t="s">
-        <v>283</v>
-      </c>
-      <c r="B165" t="s">
-        <v>284</v>
-      </c>
-      <c r="C165" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" t="s">
-        <v>341</v>
-      </c>
-      <c r="E165" t="s">
-        <v>342</v>
-      </c>
-      <c r="F165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" customFormat="1" spans="1:6">
-      <c r="A166" t="s">
-        <v>215</v>
-      </c>
-      <c r="B166" t="s">
-        <v>216</v>
-      </c>
-      <c r="C166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" t="s">
-        <v>343</v>
-      </c>
-      <c r="E166" t="s">
-        <v>344</v>
-      </c>
-      <c r="F166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" customFormat="1" spans="1:6">
-      <c r="A167" t="s">
-        <v>343</v>
-      </c>
-      <c r="B167" t="s">
-        <v>344</v>
-      </c>
-      <c r="C167" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" t="s">
-        <v>345</v>
-      </c>
-      <c r="E167" t="s">
-        <v>346</v>
-      </c>
-      <c r="F167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" customFormat="1" spans="1:6">
-      <c r="A168" t="s">
-        <v>347</v>
-      </c>
-      <c r="B168" t="s">
-        <v>348</v>
-      </c>
-      <c r="C168" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" t="s">
-        <v>349</v>
-      </c>
-      <c r="E168" t="s">
-        <v>350</v>
-      </c>
-      <c r="F168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" customFormat="1" spans="1:6">
-      <c r="A169" t="s">
-        <v>347</v>
-      </c>
-      <c r="B169" t="s">
-        <v>348</v>
-      </c>
-      <c r="C169" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" t="s">
-        <v>351</v>
-      </c>
-      <c r="E169" t="s">
-        <v>352</v>
-      </c>
-      <c r="F169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" customFormat="1" spans="1:6">
-      <c r="A170" t="s">
-        <v>347</v>
-      </c>
-      <c r="B170" t="s">
-        <v>348</v>
-      </c>
-      <c r="C170" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" t="s">
-        <v>353</v>
-      </c>
-      <c r="E170" t="s">
-        <v>354</v>
-      </c>
-      <c r="F170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" customFormat="1" spans="1:6">
-      <c r="A171" t="s">
-        <v>347</v>
-      </c>
-      <c r="B171" t="s">
-        <v>348</v>
-      </c>
-      <c r="C171" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" t="s">
-        <v>355</v>
-      </c>
-      <c r="E171" t="s">
-        <v>356</v>
-      </c>
-      <c r="F171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" customFormat="1" spans="1:6">
-      <c r="A172" t="s">
-        <v>347</v>
-      </c>
-      <c r="B172" t="s">
-        <v>348</v>
-      </c>
-      <c r="C172" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" t="s">
-        <v>357</v>
-      </c>
-      <c r="E172" t="s">
-        <v>358</v>
-      </c>
-      <c r="F172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" customFormat="1" spans="1:6">
-      <c r="A173" t="s">
-        <v>347</v>
-      </c>
-      <c r="B173" t="s">
-        <v>348</v>
-      </c>
-      <c r="C173" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" t="s">
-        <v>359</v>
-      </c>
-      <c r="E173" t="s">
-        <v>360</v>
-      </c>
-      <c r="F173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" customFormat="1" spans="1:6">
-      <c r="A174" t="s">
-        <v>347</v>
-      </c>
-      <c r="B174" t="s">
-        <v>348</v>
-      </c>
-      <c r="C174" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" t="s">
-        <v>361</v>
-      </c>
-      <c r="E174" t="s">
-        <v>362</v>
-      </c>
-      <c r="F174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" customFormat="1" spans="1:6">
-      <c r="A175" t="s">
-        <v>347</v>
-      </c>
-      <c r="B175" t="s">
-        <v>348</v>
-      </c>
-      <c r="C175" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" t="s">
-        <v>363</v>
-      </c>
-      <c r="E175" t="s">
-        <v>364</v>
-      </c>
-      <c r="F175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" customFormat="1" spans="1:6">
-      <c r="A176" t="s">
-        <v>347</v>
-      </c>
-      <c r="B176" t="s">
-        <v>348</v>
-      </c>
-      <c r="C176" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" t="s">
-        <v>365</v>
-      </c>
-      <c r="E176" t="s">
-        <v>366</v>
-      </c>
-      <c r="F176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" customFormat="1" spans="1:6">
-      <c r="A177" t="s">
-        <v>347</v>
-      </c>
-      <c r="B177" t="s">
-        <v>348</v>
-      </c>
-      <c r="C177" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" t="s">
-        <v>367</v>
-      </c>
-      <c r="E177" t="s">
-        <v>368</v>
-      </c>
-      <c r="F177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" customFormat="1" spans="1:6">
-      <c r="A178" t="s">
-        <v>347</v>
-      </c>
-      <c r="B178" t="s">
-        <v>348</v>
-      </c>
-      <c r="C178" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" t="s">
-        <v>369</v>
-      </c>
-      <c r="E178" t="s">
-        <v>370</v>
-      </c>
-      <c r="F178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" customFormat="1" spans="1:6">
-      <c r="A179" t="s">
-        <v>347</v>
-      </c>
-      <c r="B179" t="s">
-        <v>348</v>
-      </c>
-      <c r="C179" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" t="s">
-        <v>371</v>
-      </c>
-      <c r="E179" t="s">
-        <v>372</v>
-      </c>
-      <c r="F179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" customFormat="1" spans="1:6">
-      <c r="A180" t="s">
-        <v>347</v>
-      </c>
-      <c r="B180" t="s">
-        <v>348</v>
-      </c>
-      <c r="C180" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" t="s">
-        <v>373</v>
-      </c>
-      <c r="E180" t="s">
-        <v>374</v>
-      </c>
-      <c r="F180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" customFormat="1" spans="1:6">
-      <c r="A181" t="s">
-        <v>347</v>
-      </c>
-      <c r="B181" t="s">
-        <v>348</v>
-      </c>
-      <c r="C181" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" t="s">
-        <v>375</v>
-      </c>
-      <c r="E181" t="s">
-        <v>376</v>
-      </c>
-      <c r="F181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" customFormat="1" spans="1:6">
-      <c r="A182" t="s">
-        <v>347</v>
-      </c>
-      <c r="B182" t="s">
-        <v>348</v>
-      </c>
-      <c r="C182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" t="s">
-        <v>377</v>
-      </c>
-      <c r="E182" t="s">
-        <v>378</v>
-      </c>
-      <c r="F182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" customFormat="1" spans="1:6">
-      <c r="A183" t="s">
-        <v>347</v>
-      </c>
-      <c r="B183" t="s">
-        <v>348</v>
-      </c>
-      <c r="C183" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" t="s">
-        <v>379</v>
-      </c>
-      <c r="E183" t="s">
-        <v>380</v>
-      </c>
-      <c r="F183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" customFormat="1" spans="1:6">
-      <c r="A184" t="s">
-        <v>347</v>
-      </c>
-      <c r="B184" t="s">
-        <v>348</v>
-      </c>
-      <c r="C184" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" t="s">
-        <v>381</v>
-      </c>
-      <c r="E184" t="s">
-        <v>382</v>
-      </c>
-      <c r="F184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" customFormat="1" spans="1:6">
-      <c r="A185" t="s">
-        <v>347</v>
-      </c>
-      <c r="B185" t="s">
-        <v>348</v>
-      </c>
-      <c r="C185" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" t="s">
-        <v>383</v>
-      </c>
-      <c r="E185" t="s">
-        <v>384</v>
-      </c>
-      <c r="F185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" customFormat="1" spans="1:6">
-      <c r="A186" t="s">
-        <v>347</v>
-      </c>
-      <c r="B186" t="s">
-        <v>348</v>
-      </c>
-      <c r="C186" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" t="s">
-        <v>385</v>
-      </c>
-      <c r="E186" t="s">
-        <v>386</v>
-      </c>
-      <c r="F186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" customFormat="1" spans="1:6">
-      <c r="A187" t="s">
-        <v>347</v>
-      </c>
-      <c r="B187" t="s">
-        <v>348</v>
-      </c>
-      <c r="C187" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" t="s">
-        <v>387</v>
-      </c>
-      <c r="E187" t="s">
-        <v>388</v>
-      </c>
-      <c r="F187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" customFormat="1" spans="1:6">
-      <c r="A188" t="s">
-        <v>347</v>
-      </c>
-      <c r="B188" t="s">
-        <v>348</v>
-      </c>
-      <c r="C188" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" t="s">
-        <v>389</v>
-      </c>
-      <c r="E188" t="s">
-        <v>390</v>
-      </c>
-      <c r="F188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" customFormat="1" spans="1:6">
-      <c r="A189" t="s">
-        <v>347</v>
-      </c>
-      <c r="B189" t="s">
-        <v>348</v>
-      </c>
-      <c r="C189" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" t="s">
-        <v>391</v>
-      </c>
-      <c r="E189" t="s">
-        <v>392</v>
-      </c>
-      <c r="F189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" customFormat="1" spans="1:6">
-      <c r="A190" t="s">
-        <v>347</v>
-      </c>
-      <c r="B190" t="s">
-        <v>348</v>
-      </c>
-      <c r="C190" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" t="s">
-        <v>393</v>
-      </c>
-      <c r="E190" t="s">
-        <v>394</v>
-      </c>
-      <c r="F190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" customFormat="1" spans="1:6">
-      <c r="A191" t="s">
-        <v>347</v>
-      </c>
-      <c r="B191" t="s">
-        <v>348</v>
-      </c>
-      <c r="C191" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" t="s">
-        <v>395</v>
-      </c>
-      <c r="E191" t="s">
-        <v>396</v>
-      </c>
-      <c r="F191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="192" customFormat="1" spans="1:6">
-      <c r="A192" t="s">
-        <v>347</v>
-      </c>
-      <c r="B192" t="s">
-        <v>348</v>
-      </c>
-      <c r="C192" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" t="s">
-        <v>397</v>
-      </c>
-      <c r="E192" t="s">
-        <v>398</v>
-      </c>
-      <c r="F192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" customFormat="1" spans="1:6">
-      <c r="A193" t="s">
-        <v>347</v>
-      </c>
-      <c r="B193" t="s">
-        <v>348</v>
-      </c>
-      <c r="C193" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" t="s">
-        <v>399</v>
-      </c>
-      <c r="E193" t="s">
-        <v>400</v>
-      </c>
-      <c r="F193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" customFormat="1" spans="1:6">
-      <c r="A194" t="s">
-        <v>347</v>
-      </c>
-      <c r="B194" t="s">
-        <v>348</v>
-      </c>
-      <c r="C194" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" t="s">
-        <v>401</v>
-      </c>
-      <c r="E194" t="s">
-        <v>402</v>
-      </c>
-      <c r="F194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" customFormat="1" spans="1:6">
-      <c r="A195" t="s">
-        <v>347</v>
-      </c>
-      <c r="B195" t="s">
-        <v>348</v>
-      </c>
-      <c r="C195" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" t="s">
-        <v>403</v>
-      </c>
-      <c r="E195" t="s">
-        <v>404</v>
-      </c>
-      <c r="F195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" customFormat="1" spans="1:6">
-      <c r="A196" t="s">
-        <v>347</v>
-      </c>
-      <c r="B196" t="s">
-        <v>348</v>
-      </c>
-      <c r="C196" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" t="s">
-        <v>405</v>
-      </c>
-      <c r="E196" t="s">
-        <v>406</v>
-      </c>
-      <c r="F196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" customFormat="1" spans="1:6">
-      <c r="A197" t="s">
-        <v>347</v>
-      </c>
-      <c r="B197" t="s">
-        <v>348</v>
-      </c>
-      <c r="C197" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" t="s">
-        <v>407</v>
-      </c>
-      <c r="E197" t="s">
-        <v>408</v>
-      </c>
-      <c r="F197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" customFormat="1" spans="1:6">
-      <c r="A198" t="s">
-        <v>347</v>
-      </c>
-      <c r="B198" t="s">
-        <v>348</v>
-      </c>
-      <c r="C198" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" t="s">
-        <v>409</v>
-      </c>
-      <c r="E198" t="s">
-        <v>410</v>
-      </c>
-      <c r="F198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" customFormat="1" spans="1:6">
-      <c r="A199" t="s">
-        <v>347</v>
-      </c>
-      <c r="B199" t="s">
-        <v>348</v>
-      </c>
-      <c r="C199" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" t="s">
-        <v>411</v>
-      </c>
-      <c r="E199" t="s">
-        <v>412</v>
-      </c>
-      <c r="F199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" customFormat="1" spans="1:6">
-      <c r="A200" t="s">
-        <v>347</v>
-      </c>
-      <c r="B200" t="s">
-        <v>348</v>
-      </c>
-      <c r="C200" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" t="s">
-        <v>413</v>
-      </c>
-      <c r="E200" t="s">
-        <v>414</v>
-      </c>
-      <c r="F200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" customFormat="1" spans="1:6">
-      <c r="A201" t="s">
-        <v>347</v>
-      </c>
-      <c r="B201" t="s">
-        <v>348</v>
-      </c>
-      <c r="C201" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" t="s">
-        <v>415</v>
-      </c>
-      <c r="E201" t="s">
-        <v>416</v>
-      </c>
-      <c r="F201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" customFormat="1" spans="1:6">
-      <c r="A202" t="s">
-        <v>347</v>
-      </c>
-      <c r="B202" t="s">
-        <v>348</v>
-      </c>
-      <c r="C202" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" t="s">
-        <v>417</v>
-      </c>
-      <c r="E202" t="s">
-        <v>418</v>
-      </c>
-      <c r="F202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" customFormat="1" spans="1:6">
-      <c r="A203" t="s">
-        <v>347</v>
-      </c>
-      <c r="B203" t="s">
-        <v>348</v>
-      </c>
-      <c r="C203" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" t="s">
-        <v>419</v>
-      </c>
-      <c r="E203" t="s">
-        <v>420</v>
-      </c>
-      <c r="F203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" customFormat="1" spans="1:6">
-      <c r="A204" t="s">
-        <v>347</v>
-      </c>
-      <c r="B204" t="s">
-        <v>348</v>
-      </c>
-      <c r="C204" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" t="s">
-        <v>421</v>
-      </c>
-      <c r="E204" t="s">
-        <v>422</v>
-      </c>
-      <c r="F204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" customFormat="1" spans="1:6">
-      <c r="A205" t="s">
-        <v>347</v>
-      </c>
-      <c r="B205" t="s">
-        <v>348</v>
-      </c>
-      <c r="C205" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" t="s">
-        <v>423</v>
-      </c>
-      <c r="E205" t="s">
-        <v>424</v>
-      </c>
-      <c r="F205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" customFormat="1" spans="1:6">
-      <c r="A206" t="s">
-        <v>347</v>
-      </c>
-      <c r="B206" t="s">
-        <v>348</v>
-      </c>
-      <c r="C206" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" t="s">
-        <v>425</v>
-      </c>
-      <c r="E206" t="s">
-        <v>426</v>
-      </c>
-      <c r="F206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" customFormat="1" spans="1:6">
-      <c r="A207" t="s">
-        <v>347</v>
-      </c>
-      <c r="B207" t="s">
-        <v>348</v>
-      </c>
-      <c r="C207" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" t="s">
-        <v>427</v>
-      </c>
-      <c r="E207" t="s">
-        <v>428</v>
-      </c>
-      <c r="F207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="208" customFormat="1" spans="1:6">
-      <c r="A208" t="s">
-        <v>213</v>
-      </c>
-      <c r="B208" t="s">
-        <v>214</v>
-      </c>
-      <c r="C208" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" t="s">
-        <v>429</v>
-      </c>
-      <c r="E208" t="s">
-        <v>430</v>
-      </c>
-      <c r="F208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" customFormat="1" spans="1:6">
-      <c r="A209" t="s">
-        <v>431</v>
-      </c>
-      <c r="B209" t="s">
-        <v>432</v>
-      </c>
-      <c r="C209" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" t="s">
-        <v>433</v>
-      </c>
-      <c r="E209" t="s">
-        <v>434</v>
-      </c>
-      <c r="F209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" customFormat="1" spans="1:6">
-      <c r="A210" t="s">
-        <v>431</v>
-      </c>
-      <c r="B210" t="s">
-        <v>432</v>
-      </c>
-      <c r="C210" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" t="s">
-        <v>435</v>
-      </c>
-      <c r="E210" t="s">
-        <v>436</v>
-      </c>
-      <c r="F210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="211" customFormat="1" spans="1:6">
-      <c r="A211" t="s">
-        <v>431</v>
-      </c>
-      <c r="B211" t="s">
-        <v>432</v>
-      </c>
-      <c r="C211" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" t="s">
-        <v>437</v>
-      </c>
-      <c r="E211" t="s">
-        <v>438</v>
-      </c>
-      <c r="F211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" customFormat="1" spans="1:6">
-      <c r="A212" t="s">
-        <v>431</v>
-      </c>
-      <c r="B212" t="s">
-        <v>432</v>
-      </c>
-      <c r="C212" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" t="s">
-        <v>439</v>
-      </c>
-      <c r="E212" t="s">
-        <v>440</v>
-      </c>
-      <c r="F212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" customFormat="1" spans="1:6">
-      <c r="A213" t="s">
-        <v>431</v>
-      </c>
-      <c r="B213" t="s">
-        <v>432</v>
-      </c>
-      <c r="C213" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" t="s">
-        <v>441</v>
-      </c>
-      <c r="E213" t="s">
-        <v>442</v>
-      </c>
-      <c r="F213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" customFormat="1" spans="1:6">
-      <c r="A214" t="s">
-        <v>431</v>
-      </c>
-      <c r="B214" t="s">
-        <v>432</v>
-      </c>
-      <c r="C214" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" t="s">
-        <v>443</v>
-      </c>
-      <c r="E214" t="s">
-        <v>444</v>
-      </c>
-      <c r="F214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" customFormat="1" spans="1:6">
-      <c r="A215" t="s">
-        <v>431</v>
-      </c>
-      <c r="B215" t="s">
-        <v>432</v>
-      </c>
-      <c r="C215" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" t="s">
-        <v>445</v>
-      </c>
-      <c r="E215" t="s">
-        <v>446</v>
-      </c>
-      <c r="F215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" customFormat="1" spans="1:6">
-      <c r="A216" t="s">
-        <v>431</v>
-      </c>
-      <c r="B216" t="s">
-        <v>432</v>
-      </c>
-      <c r="C216" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" t="s">
-        <v>447</v>
-      </c>
-      <c r="E216" t="s">
-        <v>448</v>
-      </c>
-      <c r="F216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" customFormat="1" spans="1:6">
-      <c r="A217" t="s">
-        <v>431</v>
-      </c>
-      <c r="B217" t="s">
-        <v>432</v>
-      </c>
-      <c r="C217" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" t="s">
-        <v>449</v>
-      </c>
-      <c r="E217" t="s">
-        <v>450</v>
-      </c>
-      <c r="F217" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" customFormat="1" spans="1:6">
-      <c r="A218" t="s">
-        <v>431</v>
-      </c>
-      <c r="B218" t="s">
-        <v>432</v>
-      </c>
-      <c r="C218" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" t="s">
-        <v>451</v>
-      </c>
-      <c r="E218" t="s">
-        <v>452</v>
-      </c>
-      <c r="F218" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" customFormat="1" spans="1:6">
-      <c r="A219" t="s">
-        <v>431</v>
-      </c>
-      <c r="B219" t="s">
-        <v>432</v>
-      </c>
-      <c r="C219" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" t="s">
-        <v>453</v>
-      </c>
-      <c r="E219" t="s">
-        <v>454</v>
-      </c>
-      <c r="F219" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="220" customFormat="1" spans="1:6">
-      <c r="A220" t="s">
-        <v>431</v>
-      </c>
-      <c r="B220" t="s">
-        <v>432</v>
-      </c>
-      <c r="C220" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" t="s">
-        <v>455</v>
-      </c>
-      <c r="E220" t="s">
-        <v>456</v>
-      </c>
-      <c r="F220" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" customFormat="1" spans="1:6">
-      <c r="A221" t="s">
-        <v>431</v>
-      </c>
-      <c r="B221" t="s">
-        <v>432</v>
-      </c>
-      <c r="C221" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" t="s">
-        <v>457</v>
-      </c>
-      <c r="E221" t="s">
-        <v>458</v>
-      </c>
-      <c r="F221" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="222" customFormat="1" spans="1:6">
-      <c r="A222" t="s">
-        <v>431</v>
-      </c>
-      <c r="B222" t="s">
-        <v>432</v>
-      </c>
-      <c r="C222" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" t="s">
-        <v>459</v>
-      </c>
-      <c r="E222" t="s">
-        <v>460</v>
-      </c>
-      <c r="F222" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" customFormat="1" spans="1:6">
-      <c r="A223" t="s">
-        <v>431</v>
-      </c>
-      <c r="B223" t="s">
-        <v>432</v>
-      </c>
-      <c r="C223" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" t="s">
-        <v>461</v>
-      </c>
-      <c r="E223" t="s">
-        <v>462</v>
-      </c>
-      <c r="F223" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="224" customFormat="1" spans="1:6">
-      <c r="A224" t="s">
-        <v>431</v>
-      </c>
-      <c r="B224" t="s">
-        <v>432</v>
-      </c>
-      <c r="C224" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" t="s">
-        <v>463</v>
-      </c>
-      <c r="E224" t="s">
-        <v>464</v>
-      </c>
-      <c r="F224" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="225" customFormat="1" spans="1:6">
-      <c r="A225" t="s">
-        <v>431</v>
-      </c>
-      <c r="B225" t="s">
-        <v>432</v>
-      </c>
-      <c r="C225" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" t="s">
-        <v>465</v>
-      </c>
-      <c r="E225" t="s">
-        <v>466</v>
-      </c>
-      <c r="F225" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="226" customFormat="1" spans="1:6">
-      <c r="A226" t="s">
-        <v>431</v>
-      </c>
-      <c r="B226" t="s">
-        <v>432</v>
-      </c>
-      <c r="C226" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" t="s">
-        <v>467</v>
-      </c>
-      <c r="E226" t="s">
-        <v>468</v>
-      </c>
-      <c r="F226" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="227" customFormat="1" spans="1:6">
-      <c r="A227" t="s">
-        <v>431</v>
-      </c>
-      <c r="B227" t="s">
-        <v>432</v>
-      </c>
-      <c r="C227" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" t="s">
-        <v>469</v>
-      </c>
-      <c r="E227" t="s">
-        <v>470</v>
-      </c>
-      <c r="F227" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="228" customFormat="1" spans="1:6">
-      <c r="A228" t="s">
-        <v>431</v>
-      </c>
-      <c r="B228" t="s">
-        <v>432</v>
-      </c>
-      <c r="C228" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" t="s">
-        <v>471</v>
-      </c>
-      <c r="E228" t="s">
-        <v>472</v>
-      </c>
-      <c r="F228" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="229" customFormat="1" spans="1:6">
-      <c r="A229" t="s">
-        <v>431</v>
-      </c>
-      <c r="B229" t="s">
-        <v>432</v>
-      </c>
-      <c r="C229" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" t="s">
-        <v>473</v>
-      </c>
-      <c r="E229" t="s">
-        <v>474</v>
-      </c>
-      <c r="F229" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="230" customFormat="1" spans="1:6">
-      <c r="A230" t="s">
-        <v>431</v>
-      </c>
-      <c r="B230" t="s">
-        <v>432</v>
-      </c>
-      <c r="C230" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" t="s">
-        <v>475</v>
-      </c>
-      <c r="E230" t="s">
-        <v>476</v>
-      </c>
-      <c r="F230" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="231" customFormat="1" spans="1:6">
-      <c r="A231" t="s">
-        <v>431</v>
-      </c>
-      <c r="B231" t="s">
-        <v>432</v>
-      </c>
-      <c r="C231" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" t="s">
-        <v>477</v>
-      </c>
-      <c r="E231" t="s">
-        <v>478</v>
-      </c>
-      <c r="F231" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" customFormat="1" spans="1:6">
-      <c r="A232" t="s">
-        <v>431</v>
-      </c>
-      <c r="B232" t="s">
-        <v>432</v>
-      </c>
-      <c r="C232" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" t="s">
-        <v>479</v>
-      </c>
-      <c r="E232" t="s">
-        <v>480</v>
-      </c>
-      <c r="F232" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" customFormat="1" spans="1:6">
-      <c r="A233" t="s">
-        <v>431</v>
-      </c>
-      <c r="B233" t="s">
-        <v>432</v>
-      </c>
-      <c r="C233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" t="s">
-        <v>481</v>
-      </c>
-      <c r="E233" t="s">
-        <v>482</v>
-      </c>
-      <c r="F233" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="234" customFormat="1" spans="1:6">
-      <c r="A234" t="s">
-        <v>431</v>
-      </c>
-      <c r="B234" t="s">
-        <v>432</v>
-      </c>
-      <c r="C234" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" t="s">
-        <v>483</v>
-      </c>
-      <c r="E234" t="s">
-        <v>484</v>
-      </c>
-      <c r="F234" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="235" customFormat="1" spans="1:6">
-      <c r="A235" t="s">
-        <v>431</v>
-      </c>
-      <c r="B235" t="s">
-        <v>432</v>
-      </c>
-      <c r="C235" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" t="s">
-        <v>485</v>
-      </c>
-      <c r="E235" t="s">
-        <v>486</v>
-      </c>
-      <c r="F235" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" customFormat="1" spans="1:6">
-      <c r="A236" t="s">
-        <v>431</v>
-      </c>
-      <c r="B236" t="s">
-        <v>432</v>
-      </c>
-      <c r="C236" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" t="s">
-        <v>487</v>
-      </c>
-      <c r="E236" t="s">
-        <v>488</v>
-      </c>
-      <c r="F236" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" customFormat="1" spans="1:6">
-      <c r="A237" t="s">
-        <v>431</v>
-      </c>
-      <c r="B237" t="s">
-        <v>432</v>
-      </c>
-      <c r="C237" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" t="s">
-        <v>489</v>
-      </c>
-      <c r="E237" t="s">
-        <v>490</v>
-      </c>
-      <c r="F237" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="238" customFormat="1" spans="1:6">
-      <c r="A238" t="s">
-        <v>431</v>
-      </c>
-      <c r="B238" t="s">
-        <v>432</v>
-      </c>
-      <c r="C238" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" t="s">
-        <v>491</v>
-      </c>
-      <c r="E238" t="s">
-        <v>492</v>
-      </c>
-      <c r="F238" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="239" customFormat="1" spans="1:6">
-      <c r="A239" t="s">
-        <v>431</v>
-      </c>
-      <c r="B239" t="s">
-        <v>432</v>
-      </c>
-      <c r="C239" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" t="s">
-        <v>493</v>
-      </c>
-      <c r="E239" t="s">
-        <v>494</v>
-      </c>
-      <c r="F239" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" customFormat="1" spans="1:6">
-      <c r="A240" t="s">
-        <v>431</v>
-      </c>
-      <c r="B240" t="s">
-        <v>432</v>
-      </c>
-      <c r="C240" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" t="s">
-        <v>495</v>
-      </c>
-      <c r="E240" t="s">
-        <v>496</v>
-      </c>
-      <c r="F240" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="241" customFormat="1" spans="1:6">
-      <c r="A241" t="s">
-        <v>431</v>
-      </c>
-      <c r="B241" t="s">
-        <v>432</v>
-      </c>
-      <c r="C241" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" t="s">
-        <v>497</v>
-      </c>
-      <c r="E241" t="s">
-        <v>498</v>
-      </c>
-      <c r="F241" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="242" customFormat="1" spans="1:6">
-      <c r="A242" t="s">
-        <v>431</v>
-      </c>
-      <c r="B242" t="s">
-        <v>432</v>
-      </c>
-      <c r="C242" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" t="s">
-        <v>499</v>
-      </c>
-      <c r="E242" t="s">
-        <v>500</v>
-      </c>
-      <c r="F242" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="243" customFormat="1" spans="1:6">
-      <c r="A243" t="s">
-        <v>431</v>
-      </c>
-      <c r="B243" t="s">
-        <v>432</v>
-      </c>
-      <c r="C243" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" t="s">
-        <v>501</v>
-      </c>
-      <c r="E243" t="s">
-        <v>502</v>
-      </c>
-      <c r="F243" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7362,4 +4320,3089 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="18.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="59.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="23.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="59.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:6">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:6">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:6">
+      <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:6">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:6">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:6">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:6">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:6">
+      <c r="A25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:6">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:6">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:6">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:6">
+      <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:6">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:6">
+      <c r="A31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:6">
+      <c r="A32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:6">
+      <c r="A33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:6">
+      <c r="A34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:6">
+      <c r="A35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:6">
+      <c r="A36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:6">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" t="s">
+        <v>264</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:6">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:6">
+      <c r="A39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:6">
+      <c r="A40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>269</v>
+      </c>
+      <c r="E40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:6">
+      <c r="A41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:6">
+      <c r="A42" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:6">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:6">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:6">
+      <c r="A45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:6">
+      <c r="A46" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:6">
+      <c r="A47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" t="s">
+        <v>286</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:6">
+      <c r="A48" t="s">
+        <v>283</v>
+      </c>
+      <c r="B48" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:6">
+      <c r="A49" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:6">
+      <c r="A50" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>291</v>
+      </c>
+      <c r="E50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:6">
+      <c r="A51" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>293</v>
+      </c>
+      <c r="E51" t="s">
+        <v>294</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:6">
+      <c r="A52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" t="s">
+        <v>296</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:6">
+      <c r="A53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>297</v>
+      </c>
+      <c r="E53" t="s">
+        <v>298</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:6">
+      <c r="A54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B54" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:6">
+      <c r="A55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E55" t="s">
+        <v>302</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:6">
+      <c r="A56" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>303</v>
+      </c>
+      <c r="E56" t="s">
+        <v>304</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:6">
+      <c r="A57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>305</v>
+      </c>
+      <c r="E57" t="s">
+        <v>306</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:6">
+      <c r="A58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" t="s">
+        <v>308</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:6">
+      <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>309</v>
+      </c>
+      <c r="E59" t="s">
+        <v>310</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:6">
+      <c r="A60" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60" t="s">
+        <v>312</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:6">
+      <c r="A61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>313</v>
+      </c>
+      <c r="E61" t="s">
+        <v>314</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:6">
+      <c r="A62" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>315</v>
+      </c>
+      <c r="E62" t="s">
+        <v>316</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:6">
+      <c r="A63" t="s">
+        <v>283</v>
+      </c>
+      <c r="B63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" t="s">
+        <v>318</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:6">
+      <c r="A64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>319</v>
+      </c>
+      <c r="E64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:6">
+      <c r="A65" t="s">
+        <v>283</v>
+      </c>
+      <c r="B65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>321</v>
+      </c>
+      <c r="E65" t="s">
+        <v>322</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:6">
+      <c r="A66" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>323</v>
+      </c>
+      <c r="E66" t="s">
+        <v>324</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:6">
+      <c r="A67" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>325</v>
+      </c>
+      <c r="E67" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:6">
+      <c r="A68" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>327</v>
+      </c>
+      <c r="E68" t="s">
+        <v>328</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:6">
+      <c r="A69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" t="s">
+        <v>330</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:6">
+      <c r="A70" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" t="s">
+        <v>332</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:6">
+      <c r="A71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>333</v>
+      </c>
+      <c r="E71" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:6">
+      <c r="A72" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>335</v>
+      </c>
+      <c r="E72" t="s">
+        <v>336</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:6">
+      <c r="A73" t="s">
+        <v>283</v>
+      </c>
+      <c r="B73" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>337</v>
+      </c>
+      <c r="E73" t="s">
+        <v>338</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:6">
+      <c r="A74" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>339</v>
+      </c>
+      <c r="E74" t="s">
+        <v>340</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:6">
+      <c r="A75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" t="s">
+        <v>342</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:6">
+      <c r="A76" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76" t="s">
+        <v>344</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:6">
+      <c r="A77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" t="s">
+        <v>344</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>345</v>
+      </c>
+      <c r="E77" t="s">
+        <v>346</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:6">
+      <c r="A78" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>349</v>
+      </c>
+      <c r="E78" t="s">
+        <v>350</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:6">
+      <c r="A79" t="s">
+        <v>347</v>
+      </c>
+      <c r="B79" t="s">
+        <v>348</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>351</v>
+      </c>
+      <c r="E79" t="s">
+        <v>352</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:6">
+      <c r="A80" t="s">
+        <v>347</v>
+      </c>
+      <c r="B80" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>353</v>
+      </c>
+      <c r="E80" t="s">
+        <v>354</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:6">
+      <c r="A81" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" t="s">
+        <v>348</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>355</v>
+      </c>
+      <c r="E81" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:6">
+      <c r="A82" t="s">
+        <v>347</v>
+      </c>
+      <c r="B82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>357</v>
+      </c>
+      <c r="E82" t="s">
+        <v>358</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:6">
+      <c r="A83" t="s">
+        <v>347</v>
+      </c>
+      <c r="B83" t="s">
+        <v>348</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>359</v>
+      </c>
+      <c r="E83" t="s">
+        <v>360</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:6">
+      <c r="A84" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84" t="s">
+        <v>348</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>361</v>
+      </c>
+      <c r="E84" t="s">
+        <v>362</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:6">
+      <c r="A85" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>363</v>
+      </c>
+      <c r="E85" t="s">
+        <v>364</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:6">
+      <c r="A86" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>365</v>
+      </c>
+      <c r="E86" t="s">
+        <v>366</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="1" spans="1:6">
+      <c r="A87" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>367</v>
+      </c>
+      <c r="E87" t="s">
+        <v>368</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:6">
+      <c r="A88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>369</v>
+      </c>
+      <c r="E88" t="s">
+        <v>370</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:6">
+      <c r="A89" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>371</v>
+      </c>
+      <c r="E89" t="s">
+        <v>372</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:6">
+      <c r="A90" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" t="s">
+        <v>348</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>373</v>
+      </c>
+      <c r="E90" t="s">
+        <v>374</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:6">
+      <c r="A91" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" t="s">
+        <v>348</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>375</v>
+      </c>
+      <c r="E91" t="s">
+        <v>376</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:6">
+      <c r="A92" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>377</v>
+      </c>
+      <c r="E92" t="s">
+        <v>378</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:6">
+      <c r="A93" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>379</v>
+      </c>
+      <c r="E93" t="s">
+        <v>380</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:6">
+      <c r="A94" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>381</v>
+      </c>
+      <c r="E94" t="s">
+        <v>382</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:6">
+      <c r="A95" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" t="s">
+        <v>348</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>383</v>
+      </c>
+      <c r="E95" t="s">
+        <v>384</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:6">
+      <c r="A96" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>385</v>
+      </c>
+      <c r="E96" t="s">
+        <v>386</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:6">
+      <c r="A97" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>387</v>
+      </c>
+      <c r="E97" t="s">
+        <v>388</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:6">
+      <c r="A98" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>389</v>
+      </c>
+      <c r="E98" t="s">
+        <v>390</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:6">
+      <c r="A99" t="s">
+        <v>347</v>
+      </c>
+      <c r="B99" t="s">
+        <v>348</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>391</v>
+      </c>
+      <c r="E99" t="s">
+        <v>392</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:6">
+      <c r="A100" t="s">
+        <v>347</v>
+      </c>
+      <c r="B100" t="s">
+        <v>348</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>393</v>
+      </c>
+      <c r="E100" t="s">
+        <v>394</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:6">
+      <c r="A101" t="s">
+        <v>347</v>
+      </c>
+      <c r="B101" t="s">
+        <v>348</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>395</v>
+      </c>
+      <c r="E101" t="s">
+        <v>396</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:6">
+      <c r="A102" t="s">
+        <v>347</v>
+      </c>
+      <c r="B102" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>397</v>
+      </c>
+      <c r="E102" t="s">
+        <v>398</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" spans="1:6">
+      <c r="A103" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>399</v>
+      </c>
+      <c r="E103" t="s">
+        <v>400</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:6">
+      <c r="A104" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>401</v>
+      </c>
+      <c r="E104" t="s">
+        <v>402</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="1:6">
+      <c r="A105" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>403</v>
+      </c>
+      <c r="E105" t="s">
+        <v>404</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="1:6">
+      <c r="A106" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" t="s">
+        <v>348</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>405</v>
+      </c>
+      <c r="E106" t="s">
+        <v>406</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:6">
+      <c r="A107" t="s">
+        <v>347</v>
+      </c>
+      <c r="B107" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>407</v>
+      </c>
+      <c r="E107" t="s">
+        <v>408</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="1:6">
+      <c r="A108" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>409</v>
+      </c>
+      <c r="E108" t="s">
+        <v>410</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" spans="1:6">
+      <c r="A109" t="s">
+        <v>347</v>
+      </c>
+      <c r="B109" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" t="s">
+        <v>412</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="1:6">
+      <c r="A110" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>413</v>
+      </c>
+      <c r="E110" t="s">
+        <v>414</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="1:6">
+      <c r="A111" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>415</v>
+      </c>
+      <c r="E111" t="s">
+        <v>416</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="1:6">
+      <c r="A112" t="s">
+        <v>347</v>
+      </c>
+      <c r="B112" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>417</v>
+      </c>
+      <c r="E112" t="s">
+        <v>418</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" spans="1:6">
+      <c r="A113" t="s">
+        <v>347</v>
+      </c>
+      <c r="B113" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>419</v>
+      </c>
+      <c r="E113" t="s">
+        <v>420</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" spans="1:6">
+      <c r="A114" t="s">
+        <v>347</v>
+      </c>
+      <c r="B114" t="s">
+        <v>348</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>421</v>
+      </c>
+      <c r="E114" t="s">
+        <v>422</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:6">
+      <c r="A115" t="s">
+        <v>347</v>
+      </c>
+      <c r="B115" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>423</v>
+      </c>
+      <c r="E115" t="s">
+        <v>424</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="1:6">
+      <c r="A116" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>425</v>
+      </c>
+      <c r="E116" t="s">
+        <v>426</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" spans="1:6">
+      <c r="A117" t="s">
+        <v>347</v>
+      </c>
+      <c r="B117" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>427</v>
+      </c>
+      <c r="E117" t="s">
+        <v>428</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:6">
+      <c r="A118" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118" t="s">
+        <v>214</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>429</v>
+      </c>
+      <c r="E118" t="s">
+        <v>430</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:6">
+      <c r="A119" t="s">
+        <v>431</v>
+      </c>
+      <c r="B119" t="s">
+        <v>432</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>433</v>
+      </c>
+      <c r="E119" t="s">
+        <v>434</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:6">
+      <c r="A120" t="s">
+        <v>431</v>
+      </c>
+      <c r="B120" t="s">
+        <v>432</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>435</v>
+      </c>
+      <c r="E120" t="s">
+        <v>436</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" spans="1:6">
+      <c r="A121" t="s">
+        <v>431</v>
+      </c>
+      <c r="B121" t="s">
+        <v>432</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>437</v>
+      </c>
+      <c r="E121" t="s">
+        <v>438</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="1:6">
+      <c r="A122" t="s">
+        <v>431</v>
+      </c>
+      <c r="B122" t="s">
+        <v>432</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>439</v>
+      </c>
+      <c r="E122" t="s">
+        <v>440</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:6">
+      <c r="A123" t="s">
+        <v>431</v>
+      </c>
+      <c r="B123" t="s">
+        <v>432</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>441</v>
+      </c>
+      <c r="E123" t="s">
+        <v>442</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" spans="1:6">
+      <c r="A124" t="s">
+        <v>431</v>
+      </c>
+      <c r="B124" t="s">
+        <v>432</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>443</v>
+      </c>
+      <c r="E124" t="s">
+        <v>444</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" customFormat="1" spans="1:6">
+      <c r="A125" t="s">
+        <v>431</v>
+      </c>
+      <c r="B125" t="s">
+        <v>432</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>445</v>
+      </c>
+      <c r="E125" t="s">
+        <v>446</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" customFormat="1" spans="1:6">
+      <c r="A126" t="s">
+        <v>431</v>
+      </c>
+      <c r="B126" t="s">
+        <v>432</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>447</v>
+      </c>
+      <c r="E126" t="s">
+        <v>448</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" customFormat="1" spans="1:6">
+      <c r="A127" t="s">
+        <v>431</v>
+      </c>
+      <c r="B127" t="s">
+        <v>432</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>449</v>
+      </c>
+      <c r="E127" t="s">
+        <v>450</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" customFormat="1" spans="1:6">
+      <c r="A128" t="s">
+        <v>431</v>
+      </c>
+      <c r="B128" t="s">
+        <v>432</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>451</v>
+      </c>
+      <c r="E128" t="s">
+        <v>452</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" customFormat="1" spans="1:6">
+      <c r="A129" t="s">
+        <v>431</v>
+      </c>
+      <c r="B129" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>453</v>
+      </c>
+      <c r="E129" t="s">
+        <v>454</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" spans="1:6">
+      <c r="A130" t="s">
+        <v>431</v>
+      </c>
+      <c r="B130" t="s">
+        <v>432</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>455</v>
+      </c>
+      <c r="E130" t="s">
+        <v>456</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:6">
+      <c r="A131" t="s">
+        <v>431</v>
+      </c>
+      <c r="B131" t="s">
+        <v>432</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>457</v>
+      </c>
+      <c r="E131" t="s">
+        <v>458</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" customFormat="1" spans="1:6">
+      <c r="A132" t="s">
+        <v>431</v>
+      </c>
+      <c r="B132" t="s">
+        <v>432</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>459</v>
+      </c>
+      <c r="E132" t="s">
+        <v>460</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" customFormat="1" spans="1:6">
+      <c r="A133" t="s">
+        <v>431</v>
+      </c>
+      <c r="B133" t="s">
+        <v>432</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>461</v>
+      </c>
+      <c r="E133" t="s">
+        <v>462</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" customFormat="1" spans="1:6">
+      <c r="A134" t="s">
+        <v>431</v>
+      </c>
+      <c r="B134" t="s">
+        <v>432</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>463</v>
+      </c>
+      <c r="E134" t="s">
+        <v>464</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" customFormat="1" spans="1:6">
+      <c r="A135" t="s">
+        <v>431</v>
+      </c>
+      <c r="B135" t="s">
+        <v>432</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>465</v>
+      </c>
+      <c r="E135" t="s">
+        <v>466</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" customFormat="1" spans="1:6">
+      <c r="A136" t="s">
+        <v>431</v>
+      </c>
+      <c r="B136" t="s">
+        <v>432</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>467</v>
+      </c>
+      <c r="E136" t="s">
+        <v>468</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" customFormat="1" spans="1:6">
+      <c r="A137" t="s">
+        <v>431</v>
+      </c>
+      <c r="B137" t="s">
+        <v>432</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>469</v>
+      </c>
+      <c r="E137" t="s">
+        <v>470</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" spans="1:6">
+      <c r="A138" t="s">
+        <v>431</v>
+      </c>
+      <c r="B138" t="s">
+        <v>432</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>471</v>
+      </c>
+      <c r="E138" t="s">
+        <v>472</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" customFormat="1" spans="1:6">
+      <c r="A139" t="s">
+        <v>431</v>
+      </c>
+      <c r="B139" t="s">
+        <v>432</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>473</v>
+      </c>
+      <c r="E139" t="s">
+        <v>474</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" customFormat="1" spans="1:6">
+      <c r="A140" t="s">
+        <v>431</v>
+      </c>
+      <c r="B140" t="s">
+        <v>432</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>475</v>
+      </c>
+      <c r="E140" t="s">
+        <v>476</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" customFormat="1" spans="1:6">
+      <c r="A141" t="s">
+        <v>431</v>
+      </c>
+      <c r="B141" t="s">
+        <v>432</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>477</v>
+      </c>
+      <c r="E141" t="s">
+        <v>478</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" customFormat="1" spans="1:6">
+      <c r="A142" t="s">
+        <v>431</v>
+      </c>
+      <c r="B142" t="s">
+        <v>432</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>479</v>
+      </c>
+      <c r="E142" t="s">
+        <v>480</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" customFormat="1" spans="1:6">
+      <c r="A143" t="s">
+        <v>431</v>
+      </c>
+      <c r="B143" t="s">
+        <v>432</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>481</v>
+      </c>
+      <c r="E143" t="s">
+        <v>482</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" customFormat="1" spans="1:6">
+      <c r="A144" t="s">
+        <v>431</v>
+      </c>
+      <c r="B144" t="s">
+        <v>432</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>483</v>
+      </c>
+      <c r="E144" t="s">
+        <v>484</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" spans="1:6">
+      <c r="A145" t="s">
+        <v>431</v>
+      </c>
+      <c r="B145" t="s">
+        <v>432</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>485</v>
+      </c>
+      <c r="E145" t="s">
+        <v>486</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="1:6">
+      <c r="A146" t="s">
+        <v>431</v>
+      </c>
+      <c r="B146" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>487</v>
+      </c>
+      <c r="E146" t="s">
+        <v>488</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1" spans="1:6">
+      <c r="A147" t="s">
+        <v>431</v>
+      </c>
+      <c r="B147" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>489</v>
+      </c>
+      <c r="E147" t="s">
+        <v>490</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" spans="1:6">
+      <c r="A148" t="s">
+        <v>431</v>
+      </c>
+      <c r="B148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>491</v>
+      </c>
+      <c r="E148" t="s">
+        <v>492</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" customFormat="1" spans="1:6">
+      <c r="A149" t="s">
+        <v>431</v>
+      </c>
+      <c r="B149" t="s">
+        <v>432</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>493</v>
+      </c>
+      <c r="E149" t="s">
+        <v>494</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" customFormat="1" spans="1:6">
+      <c r="A150" t="s">
+        <v>431</v>
+      </c>
+      <c r="B150" t="s">
+        <v>432</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>495</v>
+      </c>
+      <c r="E150" t="s">
+        <v>496</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" customFormat="1" spans="1:6">
+      <c r="A151" t="s">
+        <v>431</v>
+      </c>
+      <c r="B151" t="s">
+        <v>432</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>497</v>
+      </c>
+      <c r="E151" t="s">
+        <v>498</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" customFormat="1" spans="1:6">
+      <c r="A152" t="s">
+        <v>431</v>
+      </c>
+      <c r="B152" t="s">
+        <v>432</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>499</v>
+      </c>
+      <c r="E152" t="s">
+        <v>500</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" customFormat="1" spans="1:6">
+      <c r="A153" t="s">
+        <v>431</v>
+      </c>
+      <c r="B153" t="s">
+        <v>432</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>501</v>
+      </c>
+      <c r="E153" t="s">
+        <v>502</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>